--- a/src/test/resources/validate.xlsx
+++ b/src/test/resources/validate.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingoobjca/github/xlsx-java/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingoo/GitHub/xlsx-java/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6B5363-D841-574B-8E31-E7DBA3123300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6A7A57-6224-7540-AE48-6957974F9101}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30640" yWindow="3300" windowWidth="15060" windowHeight="10440" xr2:uid="{E377AC1E-7096-554C-B25F-31543651D3ED}"/>
+    <workbookView xWindow="3300" yWindow="3440" windowWidth="15060" windowHeight="10440" xr2:uid="{E377AC1E-7096-554C-B25F-31543651D3ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,91 +25,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>标题</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+  <si>
+    <t>西城</t>
+  </si>
+  <si>
+    <t>东城</t>
+  </si>
+  <si>
+    <t>南城</t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>示例-海淀区</t>
+  </si>
+  <si>
+    <t>135/90</t>
+  </si>
+  <si>
+    <t>140/95</t>
+  </si>
+  <si>
+    <t>133/85</t>
+  </si>
+  <si>
+    <t>血压</t>
+  </si>
+  <si>
+    <t>示例-140/90</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>示例-女</t>
+  </si>
+  <si>
+    <t>东大</t>
+  </si>
+  <si>
+    <t>西大</t>
+  </si>
+  <si>
+    <t>北大</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>示例-蓝翔</t>
+  </si>
+  <si>
+    <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据2</t>
-  </si>
-  <si>
-    <t>数据3</t>
-  </si>
-  <si>
-    <t>西城</t>
-  </si>
-  <si>
-    <t>东城</t>
-  </si>
-  <si>
-    <t>南城</t>
-  </si>
-  <si>
-    <t>地区</t>
-  </si>
-  <si>
-    <t>示例-海淀区</t>
-  </si>
-  <si>
-    <t>135/90</t>
-  </si>
-  <si>
-    <t>140/95</t>
-  </si>
-  <si>
-    <t>133/85</t>
-  </si>
-  <si>
-    <t>血压</t>
-  </si>
-  <si>
-    <t>示例-140/90</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>未知</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>示例-女</t>
-  </si>
-  <si>
-    <t>东大</t>
-  </si>
-  <si>
-    <t>西大</t>
-  </si>
-  <si>
-    <t>北大</t>
-  </si>
-  <si>
-    <t>学校</t>
-  </si>
-  <si>
-    <t>示例-蓝翔</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -505,88 +490,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C127AAA-9B9C-BB46-BA83-CD682FFF893D}">
-  <dimension ref="B3:E7"/>
+  <dimension ref="B3:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.33203125" collapsed="false"/>
-    <col min="3" max="3" width="26.33203125" customWidth="true"/>
-    <col min="4" max="4" width="26.33203125" customWidth="true"/>
-    <col min="5" max="5" width="26.33203125" customWidth="true"/>
+    <col min="2" max="5" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s" s="1">
+    <row r="3" spans="2:5">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="1">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="1">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s" s="1">
-        <v>23</v>
-      </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s" s="3">
+    <row r="4" spans="2:5">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="3">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s" s="3">
-        <v>24</v>
-      </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s" s="2">
+    <row r="5" spans="2:5">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s" s="2">
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s" s="2">
+      <c r="E8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
